--- a/tables/SupplementalTables_Annotation_230929.xlsx
+++ b/tables/SupplementalTables_Annotation_230929.xlsx
@@ -357,16 +357,16 @@
     <t>Number of SNPs before any QC was applied (number of SNPs analyzed in raw meta-analysis)</t>
   </si>
   <si>
+    <t>lambda_unfiltered</t>
+  </si>
+  <si>
+    <t>Inflation factor lambda before any QC was applied</t>
+  </si>
+  <si>
     <t>n_SNPs_filtered</t>
   </si>
   <si>
     <t>Number of SNPs after QC (filtering for number of studies &gt;=10, imputation info score &gt;=0.8, minor allele frequency &gt;=0.02, heterogeneity I^2 &lt;=0.8)</t>
-  </si>
-  <si>
-    <t>lambda_filtered</t>
-  </si>
-  <si>
-    <t>Inflation factor lambda after QC</t>
   </si>
   <si>
     <t>locus_NR</t>
